--- a/file/jungnang-gu.xlsx
+++ b/file/jungnang-gu.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Metanet\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28E1B8FA-902F-4A47-9D06-CB161D14F8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C27AAB-CF91-4841-8A13-2408F13DC365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{24F14AE0-F4D3-4815-9930-304C51515C1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>아이디</t>
   </si>
@@ -258,9 +247,6 @@
   </si>
   <si>
     <t>리버센SK뷰롯데캐슬</t>
-  </si>
-  <si>
-    <t>세광</t>
   </si>
   <si>
     <t>한신</t>
@@ -384,39 +370,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -468,7 +454,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -579,6 +565,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -587,13 +580,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -658,31 +644,11 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -690,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC6B311-6DF4-43E5-AC4A-CDC1593F2AC2}">
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1288,18 +1254,10 @@
     </row>
     <row r="74" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>15902</v>
+        <v>824</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
-        <v>824</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
